--- a/result_files/aa_prop_results/aa_prop_test_analysis.xlsx
+++ b/result_files/aa_prop_results/aa_prop_test_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safra\Documents\GitHub\visual-physiology-opsin-db\scripts_n_notebooks\vpod_ML_workflows\subtests\work_in_progress\aa_prop_exs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safra\Documents\GitHub\visual-physiology-opsin-db\result_files\aa_prop_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3083BE04-DD89-402A-A70C-43754F3C606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA78E48-A3AB-4D30-A205-AC1BF2821788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{726E25D7-3E37-4E96-AF51-386C6C5EAA0B}"/>
+    <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{726E25D7-3E37-4E96-AF51-386C6C5EAA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="aa_prop_tests" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
   <si>
     <t>Data Subset Version</t>
   </si>
@@ -285,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +370,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -425,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -475,12 +498,38 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{46706C56-B70F-496D-90F1-F6C993414DAE}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -503,11 +552,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -548,18 +592,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B417CBB3-80FB-4BF0-8949-BCBF5AED314F}" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B417CBB3-80FB-4BF0-8949-BCBF5AED314F}" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:J23" xr:uid="{B417CBB3-80FB-4BF0-8949-BCBF5AED314F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
+    <sortCondition descending="1" ref="E1:E23"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6C666C78-4954-4519-B3F9-5AF6909B3A53}" name="Data Subset Version"/>
-    <tableColumn id="2" xr3:uid="{AB40C35F-8ADA-4777-A61E-7A8118536010}" name="# Seqs"/>
-    <tableColumn id="3" xr3:uid="{99BAEFB8-76E2-48F3-8A9D-0AB4DA5867F6}" name="Properties Used" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9036FAA9-6F19-4A65-9010-F9503DAACAE1}" name="Top ML Algorithm" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{86756931-361B-4FC6-A0BA-3C22B9150E33}" name="bR2" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3DFC7E63-C494-454C-AF6D-2923A0E2C4B1}" name="aMAE" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{588F6B0C-C040-4652-9713-28ECBF2BC630}" name="MSE" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{3770651A-EBF0-4FDB-B5F2-414845CA3180}" name="bRMSE" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{0BF1F7DA-C158-49C4-BDA8-B0EC4D6D4017}" name="MAPE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6C666C78-4954-4519-B3F9-5AF6909B3A53}" name="Data Subset Version" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{AB40C35F-8ADA-4777-A61E-7A8118536010}" name="# Seqs" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{99BAEFB8-76E2-48F3-8A9D-0AB4DA5867F6}" name="Properties Used" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9036FAA9-6F19-4A65-9010-F9503DAACAE1}" name="Top ML Algorithm" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{86756931-361B-4FC6-A0BA-3C22B9150E33}" name="bR2" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3DFC7E63-C494-454C-AF6D-2923A0E2C4B1}" name="aMAE" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{588F6B0C-C040-4652-9713-28ECBF2BC630}" name="MSE" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{3770651A-EBF0-4FDB-B5F2-414845CA3180}" name="bRMSE" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0BF1F7DA-C158-49C4-BDA8-B0EC4D6D4017}" name="MAPE" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{B28A2C34-E7DD-47CA-960F-F089EA10106C}" name="Top Positions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -886,13 +933,13 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="25" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -907,7 +954,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -936,35 +983,35 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="24">
         <v>362</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="15">
-        <v>0.91808953139258598</v>
+        <v>0.93066333700000003</v>
       </c>
       <c r="F2" s="15">
-        <v>8.4524615512424006</v>
+        <v>7.6414720090000001</v>
       </c>
       <c r="G2" s="15">
-        <v>257.78420964333702</v>
+        <v>220.76389209999999</v>
       </c>
       <c r="H2" s="15">
-        <v>14.741593805327</v>
+        <v>13.342916450000001</v>
       </c>
       <c r="I2" s="15">
-        <v>1.7909367445800999E-2</v>
+        <v>1.6215990999999999E-2</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -982,31 +1029,35 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
+      <c r="A3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="24">
+        <v>362</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="15">
-        <v>0.92406836938597803</v>
+        <v>0.92985056300000002</v>
       </c>
       <c r="F3" s="15">
-        <v>7.9714045555555497</v>
+        <v>7.5373554069999997</v>
       </c>
       <c r="G3" s="15">
-        <v>238.348489997049</v>
+        <v>240.69221010000001</v>
       </c>
       <c r="H3" s="15">
-        <v>13.727753206970799</v>
+        <v>13.50925983</v>
       </c>
       <c r="I3" s="15">
-        <v>1.70796826711779E-2</v>
+        <v>1.6231689000000001E-2</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>10</v>
@@ -1028,29 +1079,35 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="13" t="s">
-        <v>13</v>
+      <c r="A4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>362</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="15">
-        <v>0.92184319744294296</v>
+        <v>0.92862191594969201</v>
       </c>
       <c r="F4" s="15">
-        <v>9.3245232893710401</v>
+        <v>9.4994607617010391</v>
       </c>
       <c r="G4" s="15">
-        <v>244.867458698326</v>
+        <v>216.90897455339999</v>
       </c>
       <c r="H4" s="15">
-        <v>14.4206414234568</v>
+        <v>13.6858957273882</v>
       </c>
       <c r="I4" s="15">
-        <v>1.975789880665E-2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
+        <v>2.0171059467402198E-2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>13</v>
@@ -1074,31 +1131,35 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.91647326399999995</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10.06084618</v>
-      </c>
-      <c r="G5" s="6">
-        <v>264.66398390000001</v>
-      </c>
-      <c r="H5" s="6">
-        <v>14.765846120000001</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2.1673122E-2</v>
+      <c r="A5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="24">
+        <v>362</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.92767218799999995</v>
+      </c>
+      <c r="F5" s="15">
+        <v>7.6578312960000003</v>
+      </c>
+      <c r="G5" s="15">
+        <v>221.47690399999999</v>
+      </c>
+      <c r="H5" s="15">
+        <v>13.378192</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1.6427207999999999E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>14</v>
@@ -1124,29 +1185,35 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="24">
+        <v>362</v>
+      </c>
       <c r="C6" s="13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E6" s="15">
-        <v>0.89669020447822601</v>
+        <v>0.92476897599999996</v>
       </c>
       <c r="F6" s="15">
-        <v>9.1297069259259196</v>
+        <v>8.1242312109999997</v>
       </c>
       <c r="G6" s="15">
-        <v>306.18124211309799</v>
+        <v>244.94313149999999</v>
       </c>
       <c r="H6" s="15">
-        <v>15.7550708853993</v>
+        <v>14.38166238</v>
       </c>
       <c r="I6" s="15">
-        <v>1.98618101903556E-2</v>
+        <v>1.7112122E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>21</v>
@@ -1174,31 +1241,35 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>362</v>
+      </c>
       <c r="C7" s="12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="15">
-        <v>0.92862191594969201</v>
+        <v>0.92406836938597803</v>
       </c>
       <c r="F7" s="15">
-        <v>9.4994607617010391</v>
+        <v>7.9714045555555497</v>
       </c>
       <c r="G7" s="15">
-        <v>216.90897455339999</v>
+        <v>238.348489997049</v>
       </c>
       <c r="H7" s="15">
-        <v>13.6858957273882</v>
+        <v>13.727753206970799</v>
       </c>
       <c r="I7" s="15">
-        <v>2.0171059467402198E-2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>1.70796826711779E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>23</v>
@@ -1226,29 +1297,35 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
-        <v>23</v>
+      <c r="A8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>362</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="15">
-        <v>0.91919379031844295</v>
+        <v>0.92343401018772198</v>
       </c>
       <c r="F8" s="15">
-        <v>8.2350068888888899</v>
+        <v>7.6710067037037</v>
       </c>
       <c r="G8" s="15">
-        <v>260.24199762140699</v>
+        <v>239.77455489016</v>
       </c>
       <c r="H8" s="15">
-        <v>14.060448022237001</v>
+        <v>13.529968291652301</v>
       </c>
       <c r="I8" s="15">
-        <v>1.7599341729323498E-2</v>
+        <v>1.64360277136281E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>24</v>
@@ -1276,31 +1353,35 @@
       <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.91620065399999995</v>
-      </c>
-      <c r="F9" s="6">
-        <v>8.4403681479999992</v>
-      </c>
-      <c r="G9" s="6">
-        <v>262.05528520000001</v>
-      </c>
-      <c r="H9" s="6">
-        <v>14.63197265</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1.8191305000000001E-2</v>
+      <c r="A9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24">
+        <v>362</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.92291468300000001</v>
+      </c>
+      <c r="F9" s="15">
+        <v>9.0012706260000002</v>
+      </c>
+      <c r="G9" s="15">
+        <v>237.3913579</v>
+      </c>
+      <c r="H9" s="15">
+        <v>13.94330471</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1.9219960000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>25</v>
@@ -1330,29 +1411,35 @@
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="24">
+        <v>362</v>
+      </c>
       <c r="C10" s="13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="15">
-        <v>0.91309982599999995</v>
+        <v>0.92204576000000005</v>
       </c>
       <c r="F10" s="15">
-        <v>8.8520198229999991</v>
+        <v>8.8904391530000009</v>
       </c>
       <c r="G10" s="15">
-        <v>263.63026869999999</v>
+        <v>249.00129290000001</v>
       </c>
       <c r="H10" s="15">
-        <v>14.87981381</v>
+        <v>14.709327180000001</v>
       </c>
       <c r="I10" s="15">
-        <v>1.9009325000000001E-2</v>
+        <v>1.9156992000000001E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>20</v>
@@ -1384,29 +1471,35 @@
       <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="12" t="s">
-        <v>21</v>
+      <c r="A11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24">
+        <v>362</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="15">
-        <v>0.90886645020531598</v>
+        <v>0.922011264</v>
       </c>
       <c r="F11" s="15">
-        <v>9.7183691147014901</v>
+        <v>8.9618084259999993</v>
       </c>
       <c r="G11" s="15">
-        <v>285.244877143959</v>
+        <v>237.16539280000001</v>
       </c>
       <c r="H11" s="15">
-        <v>15.233281566138301</v>
+        <v>13.87266604</v>
       </c>
       <c r="I11" s="15">
-        <v>2.0876652592278999E-2</v>
+        <v>1.9006476000000001E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>19</v>
@@ -1440,29 +1533,35 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24">
+        <v>362</v>
+      </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="15">
-        <v>0.92767218799999995</v>
+        <v>0.92187675000000002</v>
       </c>
       <c r="F12" s="15">
-        <v>7.6578312960000003</v>
+        <v>8.1025420369999992</v>
       </c>
       <c r="G12" s="15">
-        <v>221.47690399999999</v>
+        <v>269.4064851</v>
       </c>
       <c r="H12" s="15">
-        <v>13.378192</v>
+        <v>14.385199099999999</v>
       </c>
       <c r="I12" s="15">
-        <v>1.6427207999999999E-2</v>
+        <v>1.7637353000000001E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17" t="s">
@@ -1494,33 +1593,45 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>33</v>
+      <c r="A13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24">
+        <v>362</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E13" s="15">
-        <v>0.93066333700000003</v>
+        <v>0.92184319744294296</v>
       </c>
       <c r="F13" s="15">
-        <v>7.6414720090000001</v>
+        <v>9.3245232893710401</v>
       </c>
       <c r="G13" s="15">
-        <v>220.76389209999999</v>
+        <v>244.867458698326</v>
       </c>
       <c r="H13" s="15">
-        <v>13.342916450000001</v>
+        <v>14.4206414234568</v>
       </c>
       <c r="I13" s="15">
-        <v>1.6215990999999999E-2</v>
+        <v>1.975789880665E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24">
+        <v>362</v>
+      </c>
       <c r="C14" s="13" t="s">
         <v>35</v>
       </c>
@@ -1558,237 +1669,291 @@
       <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
-        <v>36</v>
+      <c r="A15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24">
+        <v>362</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.92070099800000005</v>
+      </c>
+      <c r="F15" s="15">
+        <v>8.5249745810000004</v>
+      </c>
+      <c r="G15" s="15">
+        <v>257.77730739999998</v>
+      </c>
+      <c r="H15" s="15">
+        <v>14.702546870000001</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1.8353828999999999E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="24">
+        <v>362</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="15">
-        <v>0.92343401018772198</v>
-      </c>
-      <c r="F15" s="15">
-        <v>7.6710067037037</v>
-      </c>
-      <c r="G15" s="15">
-        <v>239.77455489016</v>
-      </c>
-      <c r="H15" s="15">
-        <v>13.529968291652301</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1.64360277136281E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="15">
+        <v>0.91919379031844295</v>
+      </c>
+      <c r="F16" s="15">
+        <v>8.2350068888888899</v>
+      </c>
+      <c r="G16" s="15">
+        <v>260.24199762140699</v>
+      </c>
+      <c r="H16" s="15">
+        <v>14.060448022237001</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1.7599341729323498E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="24">
+        <v>362</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.91858019099999999</v>
+      </c>
+      <c r="F17" s="15">
+        <v>7.8850965559999997</v>
+      </c>
+      <c r="G17" s="15">
+        <v>255.02252709999999</v>
+      </c>
+      <c r="H17" s="15">
+        <v>14.091792099999999</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1.6909087E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10">
+        <v>362</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.91808953139258598</v>
+      </c>
+      <c r="F18" s="15">
+        <v>8.4524615512424006</v>
+      </c>
+      <c r="G18" s="15">
+        <v>257.78420964333702</v>
+      </c>
+      <c r="H18" s="15">
+        <v>14.741593805327</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1.7909367445800999E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>362</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="15">
-        <v>0.92291468300000001</v>
-      </c>
-      <c r="F16" s="15">
-        <v>9.0012706260000002</v>
-      </c>
-      <c r="G16" s="15">
-        <v>237.3913579</v>
-      </c>
-      <c r="H16" s="15">
-        <v>13.94330471</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1.9219960000000001E-2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.92476897599999996</v>
-      </c>
-      <c r="F17" s="15">
-        <v>8.1242312109999997</v>
-      </c>
-      <c r="G17" s="15">
-        <v>244.94313149999999</v>
-      </c>
-      <c r="H17" s="15">
-        <v>14.38166238</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1.7112122E-2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="E19" s="6">
+        <v>0.91647326399999995</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10.06084618</v>
+      </c>
+      <c r="G19" s="6">
+        <v>264.66398390000001</v>
+      </c>
+      <c r="H19" s="6">
+        <v>14.765846120000001</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2.1673122E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4">
+        <v>362</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="15">
-        <v>0.92985056300000002</v>
-      </c>
-      <c r="F18" s="15">
-        <v>7.5373554069999997</v>
-      </c>
-      <c r="G18" s="15">
-        <v>240.69221010000001</v>
-      </c>
-      <c r="H18" s="15">
-        <v>13.50925983</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1.6231689000000001E-2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.92187675000000002</v>
-      </c>
-      <c r="F19" s="15">
-        <v>8.1025420369999992</v>
-      </c>
-      <c r="G19" s="15">
-        <v>269.4064851</v>
-      </c>
-      <c r="H19" s="15">
-        <v>14.385199099999999</v>
-      </c>
-      <c r="I19" s="15">
-        <v>1.7637353000000001E-2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.92070099800000005</v>
-      </c>
-      <c r="F20" s="15">
-        <v>8.5249745810000004</v>
-      </c>
-      <c r="G20" s="15">
-        <v>257.77730739999998</v>
-      </c>
-      <c r="H20" s="15">
-        <v>14.702546870000001</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1.8353828999999999E-2</v>
+      <c r="E20" s="6">
+        <v>0.91620065399999995</v>
+      </c>
+      <c r="F20" s="6">
+        <v>8.4403681479999992</v>
+      </c>
+      <c r="G20" s="6">
+        <v>262.05528520000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>14.63197265</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.8191305000000001E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="24">
+        <v>362</v>
+      </c>
       <c r="C21" s="13" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="15">
-        <v>0.92204576000000005</v>
+        <v>0.91309982599999995</v>
       </c>
       <c r="F21" s="15">
-        <v>8.8904391530000009</v>
+        <v>8.8520198229999991</v>
       </c>
       <c r="G21" s="15">
-        <v>249.00129290000001</v>
+        <v>263.63026869999999</v>
       </c>
       <c r="H21" s="15">
-        <v>14.709327180000001</v>
+        <v>14.87981381</v>
       </c>
       <c r="I21" s="15">
-        <v>1.9156992000000001E-2</v>
+        <v>1.9009325000000001E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="24">
+        <v>362</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.90886645020531598</v>
+      </c>
+      <c r="F22" s="15">
+        <v>9.7183691147014901</v>
+      </c>
+      <c r="G22" s="15">
+        <v>285.244877143959</v>
+      </c>
+      <c r="H22" s="15">
+        <v>15.233281566138301</v>
+      </c>
+      <c r="I22" s="15">
+        <v>2.0876652592278999E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="24">
+        <v>362</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="15">
-        <v>0.91858019099999999</v>
-      </c>
-      <c r="F22" s="15">
-        <v>7.8850965559999997</v>
-      </c>
-      <c r="G22" s="15">
-        <v>255.02252709999999</v>
-      </c>
-      <c r="H22" s="15">
-        <v>14.091792099999999</v>
-      </c>
-      <c r="I22" s="15">
-        <v>1.6909087E-2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="E23" s="15">
-        <v>0.922011264</v>
+        <v>0.89669020447822601</v>
       </c>
       <c r="F23" s="15">
-        <v>8.9618084259999993</v>
+        <v>9.1297069259259196</v>
       </c>
       <c r="G23" s="15">
-        <v>237.16539280000001</v>
+        <v>306.18124211309799</v>
       </c>
       <c r="H23" s="15">
-        <v>13.87266604</v>
+        <v>15.7550708853993</v>
       </c>
       <c r="I23" s="15">
-        <v>1.9006476000000001E-2</v>
+        <v>1.98618101903556E-2</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
